--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/45_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/45_225-80R17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="101">
   <si>
     <t>Signal_Value_45</t>
   </si>
@@ -121,6 +121,141 @@
   </si>
   <si>
     <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
+  <si>
+    <t>Signal_Value_89</t>
+  </si>
+  <si>
+    <t>Signal_Value_90</t>
+  </si>
+  <si>
+    <t>Signal_Value_91</t>
+  </si>
+  <si>
+    <t>Signal_Value_92</t>
+  </si>
+  <si>
+    <t>Signal_Value_93</t>
+  </si>
+  <si>
+    <t>Signal_Value_94</t>
+  </si>
+  <si>
+    <t>Signal_Value_95</t>
+  </si>
+  <si>
+    <t>Signal_Value_96</t>
+  </si>
+  <si>
+    <t>Signal_Value_97</t>
+  </si>
+  <si>
+    <t>Signal_Value_98</t>
+  </si>
+  <si>
+    <t>Signal_Value_99</t>
+  </si>
+  <si>
+    <t>Signal_Value_100</t>
+  </si>
+  <si>
+    <t>Signal_Value_101</t>
+  </si>
+  <si>
+    <t>Signal_Value_102</t>
+  </si>
+  <si>
+    <t>Signal_Value_103</t>
+  </si>
+  <si>
+    <t>Signal_Value_104</t>
+  </si>
+  <si>
+    <t>Signal_Value_105</t>
+  </si>
+  <si>
+    <t>Signal_Value_106</t>
+  </si>
+  <si>
+    <t>Signal_Value_107</t>
+  </si>
+  <si>
+    <t>Signal_Value_108</t>
+  </si>
+  <si>
+    <t>Signal_Value_109</t>
+  </si>
+  <si>
+    <t>Signal_Value_110</t>
+  </si>
+  <si>
+    <t>Signal_Value_111</t>
+  </si>
+  <si>
+    <t>Signal_Value_112</t>
+  </si>
+  <si>
+    <t>Signal_Value_113</t>
+  </si>
+  <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -544,15 +679,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:CB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:80">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,10 +791,145 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:80">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -668,61 +938,61 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1969241056386636</v>
+        <v>0.1487645912086173</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2603460341224777</v>
+        <v>0.04555926132727144</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.08154422483390421</v>
       </c>
       <c r="I2">
-        <v>0.03691943118791798</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02480045745007298</v>
       </c>
       <c r="K2">
-        <v>0.0826421473956334</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06784042232786003</v>
+        <v>0.2353505437430138</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.052652844983448</v>
       </c>
       <c r="N2">
-        <v>0.1175219585583207</v>
+        <v>0.01719236670165465</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.04649685106231619</v>
       </c>
       <c r="P2">
-        <v>0.007153375724152243</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00306622168952541</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.006186198599436831</v>
       </c>
       <c r="T2">
-        <v>0.0444288685734019</v>
+        <v>0.06554062847667903</v>
       </c>
       <c r="U2">
-        <v>0.05333695000331718</v>
+        <v>0.08814966225942837</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.03248955851174452</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -734,25 +1004,25 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.00430959605488928</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.03261602646707079</v>
+        <v>0.004118993413204167</v>
       </c>
       <c r="AB2">
-        <v>0.0002829679922710583</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.04829080732832234</v>
+        <v>0.04276654405413917</v>
       </c>
       <c r="AE2">
-        <v>0.02725998170309484</v>
+        <v>0.06474565847838955</v>
       </c>
       <c r="AF2">
-        <v>0.02012732692260714</v>
+        <v>0.04057539320715435</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -763,10 +1033,145 @@
       <c r="AI2">
         <v>0</v>
       </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:80">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -775,43 +1180,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08510480009897121</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02444407756360171</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3336029001895509</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02647901349066408</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01309042057220287</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03365655503225319</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09802478054488062</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1266692390149891</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.01563986303320918</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -823,43 +1228,43 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.03678959476301413</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.05290351332304366</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0109231184037603</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0004174387266800577</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0006138642814937081</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.02781195861258782</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.00851389861892975</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.03412846610604976</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03833943071814769</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.03284706690597038</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -870,10 +1275,145 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0.1632429880315885</v>
+      </c>
+      <c r="AX3">
+        <v>0.06044283278183924</v>
+      </c>
+      <c r="AY3">
+        <v>0.004355284535135178</v>
+      </c>
+      <c r="AZ3">
+        <v>0.03880421757571492</v>
+      </c>
+      <c r="BA3">
+        <v>0.06461007864634684</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0.02405480017078388</v>
+      </c>
+      <c r="BD3">
+        <v>0.09237566019485582</v>
+      </c>
+      <c r="BE3">
+        <v>0.2047082967660226</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0.1308449621388454</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0.0002319772488788704</v>
+      </c>
+      <c r="BJ3">
+        <v>0.009399599110682813</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0.02500347710342723</v>
+      </c>
+      <c r="BM3">
+        <v>0.01875040548244685</v>
+      </c>
+      <c r="BN3">
+        <v>0.0548967305298149</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0.0105365971594117</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0.01179663070568917</v>
+      </c>
+      <c r="BW3">
+        <v>0.04256245280946595</v>
+      </c>
+      <c r="BX3">
+        <v>0.03861351119753872</v>
+      </c>
+      <c r="BY3">
+        <v>0.004769497811511224</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:80">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -882,40 +1422,40 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2542958706155528</v>
+        <v>0.124115544234972</v>
       </c>
       <c r="E4">
-        <v>0.1650071381583949</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.05941344035044922</v>
+        <v>0.05570573945893718</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.007837738244037492</v>
       </c>
       <c r="H4">
-        <v>0.01533682267003433</v>
+        <v>0.1210730220597841</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01510776122477914</v>
       </c>
       <c r="K4">
-        <v>0.110042463029756</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1069719397614476</v>
+        <v>0.2674431498113515</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05770421510230511</v>
       </c>
       <c r="N4">
-        <v>0.04897335356653973</v>
+        <v>0.00865209182969697</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.06977943937724988</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -927,46 +1467,46 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.02685551631858262</v>
+        <v>0.02591588346382474</v>
       </c>
       <c r="T4">
-        <v>0.08039679277086909</v>
+        <v>0.02496598821127329</v>
       </c>
       <c r="U4">
-        <v>0.01522448985987273</v>
+        <v>0.04225881168240295</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.03972091837208893</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.008439031922507403</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.005585522393231924</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.02089937391956703</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.005445514078268642</v>
       </c>
       <c r="AC4">
-        <v>0.01919502892939864</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01907517485327453</v>
+        <v>0.04189623842067722</v>
       </c>
       <c r="AE4">
-        <v>0.03593564719344319</v>
+        <v>0.05548062419642095</v>
       </c>
       <c r="AF4">
-        <v>0.008352393687077993</v>
+        <v>0.03689732023192989</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -977,10 +1517,145 @@
       <c r="AI4">
         <v>0</v>
       </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:80">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -989,58 +1664,58 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2644274253067785</v>
+        <v>0.2031949259579286</v>
       </c>
       <c r="E5">
-        <v>0.04163469738567223</v>
+        <v>0.0243722477694721</v>
       </c>
       <c r="F5">
-        <v>0.1032799347788176</v>
+        <v>0.06454236374139394</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.02227947474048315</v>
       </c>
       <c r="H5">
-        <v>0.01678829457290371</v>
+        <v>0.08488933211438605</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001333275335918596</v>
+        <v>0.01005272491556609</v>
       </c>
       <c r="K5">
-        <v>0.004461822328536215</v>
+        <v>0.04401372702517985</v>
       </c>
       <c r="L5">
-        <v>0.2648824053890361</v>
+        <v>0.2215040579513372</v>
       </c>
       <c r="M5">
-        <v>0.002673455411601627</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.01900423702614715</v>
+        <v>0.1029763427373177</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01095446426468584</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.01044608841512904</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.0004470905751484935</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00695799925920164</v>
       </c>
       <c r="T5">
-        <v>0.09636283131988736</v>
+        <v>0.01663409136564289</v>
       </c>
       <c r="U5">
-        <v>0.05396258685334308</v>
+        <v>0.06651732026581533</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1049,31 +1724,31 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.01772861856311512</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.003852596948992378</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01768671134346625</v>
+        <v>0.00945910860599136</v>
       </c>
       <c r="AB5">
-        <v>0.008001127148101332</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.001796332548319842</v>
       </c>
       <c r="AD5">
-        <v>0.03477539167089061</v>
+        <v>0.04280791919622622</v>
       </c>
       <c r="AE5">
-        <v>0.02852836681034985</v>
+        <v>0.03935803646834615</v>
       </c>
       <c r="AF5">
-        <v>0.02181616960876882</v>
+        <v>0.01679635208242875</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1084,10 +1759,145 @@
       <c r="AI5">
         <v>0</v>
       </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:80">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1096,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1053669027930353</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1393011092542608</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1111,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01507749624851224</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.005260278110233952</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3756545713137613</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1129,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01419180323798074</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.003478905499396359</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1144,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1249547444459267</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.03250644620162551</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1156,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03706354957118081</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1165,22 +1975,22 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02425155753761667</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01635022955923923</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.05123782330420684</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.02090704533532731</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.03439753758769613</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1189,6 +1999,141 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0.2661081420317362</v>
+      </c>
+      <c r="AW6">
+        <v>0.02608018904193573</v>
+      </c>
+      <c r="AX6">
+        <v>0.1196481651186426</v>
+      </c>
+      <c r="AY6">
+        <v>0.017987452157917</v>
+      </c>
+      <c r="AZ6">
+        <v>0.02384958831385303</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0.008966565583804802</v>
+      </c>
+      <c r="BC6">
+        <v>0.07921645995344222</v>
+      </c>
+      <c r="BD6">
+        <v>0.1379106009324991</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0.1175409769392103</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0.03105577950910536</v>
+      </c>
+      <c r="BM6">
+        <v>0.06604703225487751</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0.01447989337452016</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0.03418170812340721</v>
+      </c>
+      <c r="BW6">
+        <v>0.03723484625731041</v>
+      </c>
+      <c r="BX6">
+        <v>0.01969260040773839</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
         <v>0</v>
       </c>
     </row>
@@ -1199,15 +2144,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:CB6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:80">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1311,10 +2256,145 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:80">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1323,105 +2403,240 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1969241056386636</v>
+        <v>0.1487645912086173</v>
       </c>
       <c r="E2">
-        <v>0.1969241056386636</v>
+        <v>0.1487645912086173</v>
       </c>
       <c r="F2">
-        <v>0.4572701397611413</v>
+        <v>0.1943238525358887</v>
       </c>
       <c r="G2">
-        <v>0.4572701397611413</v>
+        <v>0.1943238525358887</v>
       </c>
       <c r="H2">
-        <v>0.4572701397611413</v>
+        <v>0.2758680773697929</v>
       </c>
       <c r="I2">
-        <v>0.4941895709490593</v>
+        <v>0.2758680773697929</v>
       </c>
       <c r="J2">
-        <v>0.4941895709490593</v>
+        <v>0.3006685348198659</v>
       </c>
       <c r="K2">
-        <v>0.5768317183446927</v>
+        <v>0.3006685348198659</v>
       </c>
       <c r="L2">
-        <v>0.6446721406725527</v>
+        <v>0.5360190785628797</v>
       </c>
       <c r="M2">
-        <v>0.6446721406725527</v>
+        <v>0.5886719235463277</v>
       </c>
       <c r="N2">
-        <v>0.7621940992308734</v>
+        <v>0.6058642902479824</v>
       </c>
       <c r="O2">
-        <v>0.7621940992308734</v>
+        <v>0.6523611413102985</v>
       </c>
       <c r="P2">
-        <v>0.7693474749550256</v>
+        <v>0.6523611413102985</v>
       </c>
       <c r="Q2">
-        <v>0.7693474749550256</v>
+        <v>0.6523611413102985</v>
       </c>
       <c r="R2">
-        <v>0.7693474749550256</v>
+        <v>0.655427362999824</v>
       </c>
       <c r="S2">
-        <v>0.7693474749550256</v>
+        <v>0.6616135615992608</v>
       </c>
       <c r="T2">
-        <v>0.8137763435284275</v>
+        <v>0.7271541900759398</v>
       </c>
       <c r="U2">
-        <v>0.8671132935317447</v>
+        <v>0.8153038523353682</v>
       </c>
       <c r="V2">
-        <v>0.8671132935317447</v>
+        <v>0.8477934108471127</v>
       </c>
       <c r="W2">
-        <v>0.8671132935317447</v>
+        <v>0.8477934108471127</v>
       </c>
       <c r="X2">
-        <v>0.8671132935317447</v>
+        <v>0.8477934108471127</v>
       </c>
       <c r="Y2">
-        <v>0.8671132935317447</v>
+        <v>0.8477934108471127</v>
       </c>
       <c r="Z2">
-        <v>0.8714228895866339</v>
+        <v>0.8477934108471127</v>
       </c>
       <c r="AA2">
-        <v>0.9040389160537048</v>
+        <v>0.8519124042603169</v>
       </c>
       <c r="AB2">
-        <v>0.9043218840459758</v>
+        <v>0.8519124042603169</v>
       </c>
       <c r="AC2">
-        <v>0.9043218840459758</v>
+        <v>0.8519124042603169</v>
       </c>
       <c r="AD2">
-        <v>0.9526126913742982</v>
+        <v>0.894678948314456</v>
       </c>
       <c r="AE2">
-        <v>0.979872673077393</v>
+        <v>0.9594246067928456</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CB2">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:80">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1430,105 +2645,240 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08510480009897121</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1095488776625729</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4431517778521238</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4696307913427879</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.4696307913427879</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4827212119149908</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4827212119149908</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.516377766947244</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6144025474921246</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6144025474921246</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7410717865071137</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7410717865071137</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7567116495403229</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.7567116495403229</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.7567116495403229</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.7567116495403229</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.793501244303337</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.8464047576263807</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.8573278760301409</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.8573278760301409</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.857745314756821</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.8583591790383147</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.8583591790383147</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.8861711376509025</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.8946850362698322</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.8946850362698322</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.928813502375882</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.9671529330940297</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0.1632429880315885</v>
+      </c>
+      <c r="AX3">
+        <v>0.2236858208134277</v>
+      </c>
+      <c r="AY3">
+        <v>0.2280411053485629</v>
+      </c>
+      <c r="AZ3">
+        <v>0.2668453229242778</v>
+      </c>
+      <c r="BA3">
+        <v>0.3314554015706246</v>
+      </c>
+      <c r="BB3">
+        <v>0.3314554015706246</v>
+      </c>
+      <c r="BC3">
+        <v>0.3555102017414085</v>
+      </c>
+      <c r="BD3">
+        <v>0.4478858619362643</v>
+      </c>
+      <c r="BE3">
+        <v>0.6525941587022869</v>
+      </c>
+      <c r="BF3">
+        <v>0.6525941587022869</v>
+      </c>
+      <c r="BG3">
+        <v>0.7834391208411323</v>
+      </c>
+      <c r="BH3">
+        <v>0.7834391208411323</v>
+      </c>
+      <c r="BI3">
+        <v>0.7836710980900112</v>
+      </c>
+      <c r="BJ3">
+        <v>0.793070697200694</v>
+      </c>
+      <c r="BK3">
+        <v>0.793070697200694</v>
+      </c>
+      <c r="BL3">
+        <v>0.8180741743041212</v>
+      </c>
+      <c r="BM3">
+        <v>0.8368245797865681</v>
+      </c>
+      <c r="BN3">
+        <v>0.891721310316383</v>
+      </c>
+      <c r="BO3">
+        <v>0.891721310316383</v>
+      </c>
+      <c r="BP3">
+        <v>0.891721310316383</v>
+      </c>
+      <c r="BQ3">
+        <v>0.891721310316383</v>
+      </c>
+      <c r="BR3">
+        <v>0.891721310316383</v>
+      </c>
+      <c r="BS3">
+        <v>0.891721310316383</v>
+      </c>
+      <c r="BT3">
+        <v>0.9022579074757947</v>
+      </c>
+      <c r="BU3">
+        <v>0.9022579074757947</v>
+      </c>
+      <c r="BV3">
+        <v>0.9140545381814839</v>
+      </c>
+      <c r="BW3">
+        <v>0.9566169909909498</v>
+      </c>
+      <c r="BX3">
+        <v>0.9952305021884885</v>
+      </c>
+      <c r="BY3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CA3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CB3">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:80">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1537,105 +2887,240 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2542958706155528</v>
+        <v>0.124115544234972</v>
       </c>
       <c r="E4">
-        <v>0.4193030087739477</v>
+        <v>0.124115544234972</v>
       </c>
       <c r="F4">
-        <v>0.4787164491243969</v>
+        <v>0.1798212836939092</v>
       </c>
       <c r="G4">
-        <v>0.4787164491243969</v>
+        <v>0.1876590219379466</v>
       </c>
       <c r="H4">
-        <v>0.4940532717944313</v>
+        <v>0.3087320439977308</v>
       </c>
       <c r="I4">
-        <v>0.4940532717944313</v>
+        <v>0.3087320439977308</v>
       </c>
       <c r="J4">
-        <v>0.4940532717944313</v>
+        <v>0.3238398052225099</v>
       </c>
       <c r="K4">
-        <v>0.6040957348241872</v>
+        <v>0.3238398052225099</v>
       </c>
       <c r="L4">
-        <v>0.7110676745856348</v>
+        <v>0.5912829550338614</v>
       </c>
       <c r="M4">
-        <v>0.7110676745856348</v>
+        <v>0.6489871701361665</v>
       </c>
       <c r="N4">
-        <v>0.7600410281521746</v>
+        <v>0.6576392619658634</v>
       </c>
       <c r="O4">
-        <v>0.7600410281521746</v>
+        <v>0.7274187013431133</v>
       </c>
       <c r="P4">
-        <v>0.7600410281521746</v>
+        <v>0.7274187013431133</v>
       </c>
       <c r="Q4">
-        <v>0.7600410281521746</v>
+        <v>0.7274187013431133</v>
       </c>
       <c r="R4">
-        <v>0.7600410281521746</v>
+        <v>0.7274187013431133</v>
       </c>
       <c r="S4">
-        <v>0.7868965444707572</v>
+        <v>0.753334584806938</v>
       </c>
       <c r="T4">
-        <v>0.8672933372416263</v>
+        <v>0.7783005730182113</v>
       </c>
       <c r="U4">
-        <v>0.882517827101499</v>
+        <v>0.8205593847006143</v>
       </c>
       <c r="V4">
-        <v>0.882517827101499</v>
+        <v>0.8602803030727032</v>
       </c>
       <c r="W4">
-        <v>0.882517827101499</v>
+        <v>0.8602803030727032</v>
       </c>
       <c r="X4">
-        <v>0.8909568590240063</v>
+        <v>0.8602803030727032</v>
       </c>
       <c r="Y4">
-        <v>0.8909568590240063</v>
+        <v>0.8602803030727032</v>
       </c>
       <c r="Z4">
-        <v>0.8965423814172383</v>
+        <v>0.8602803030727032</v>
       </c>
       <c r="AA4">
-        <v>0.9174417553368053</v>
+        <v>0.8602803030727032</v>
       </c>
       <c r="AB4">
-        <v>0.9174417553368053</v>
+        <v>0.8657258171509719</v>
       </c>
       <c r="AC4">
-        <v>0.9366367842662039</v>
+        <v>0.8657258171509719</v>
       </c>
       <c r="AD4">
-        <v>0.9557119591194785</v>
+        <v>0.9076220555716491</v>
       </c>
       <c r="AE4">
-        <v>0.9916476063129217</v>
+        <v>0.9631026797680701</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:80">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1644,105 +3129,240 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2644274253067785</v>
+        <v>0.2031949259579286</v>
       </c>
       <c r="E5">
-        <v>0.3060621226924508</v>
+        <v>0.2275671737274007</v>
       </c>
       <c r="F5">
-        <v>0.4093420574712684</v>
+        <v>0.2921095374687946</v>
       </c>
       <c r="G5">
-        <v>0.4093420574712684</v>
+        <v>0.3143890122092778</v>
       </c>
       <c r="H5">
-        <v>0.4261303520441721</v>
+        <v>0.3992783443236638</v>
       </c>
       <c r="I5">
-        <v>0.4261303520441721</v>
+        <v>0.3992783443236638</v>
       </c>
       <c r="J5">
-        <v>0.426263679577764</v>
+        <v>0.4093310692392299</v>
       </c>
       <c r="K5">
-        <v>0.4307255019063002</v>
+        <v>0.4533447962644098</v>
       </c>
       <c r="L5">
-        <v>0.6956079072953363</v>
+        <v>0.6748488542157469</v>
       </c>
       <c r="M5">
-        <v>0.6982813627069379</v>
+        <v>0.6748488542157469</v>
       </c>
       <c r="N5">
-        <v>0.717285599733085</v>
+        <v>0.7778251969530646</v>
       </c>
       <c r="O5">
-        <v>0.717285599733085</v>
+        <v>0.7887796612177504</v>
       </c>
       <c r="P5">
-        <v>0.717285599733085</v>
+        <v>0.7992257496328795</v>
       </c>
       <c r="Q5">
-        <v>0.717285599733085</v>
+        <v>0.799672840208028</v>
       </c>
       <c r="R5">
-        <v>0.717285599733085</v>
+        <v>0.799672840208028</v>
       </c>
       <c r="S5">
-        <v>0.717285599733085</v>
+        <v>0.8066308394672296</v>
       </c>
       <c r="T5">
-        <v>0.8136484310529724</v>
+        <v>0.8232649308328724</v>
       </c>
       <c r="U5">
-        <v>0.8676110179063155</v>
+        <v>0.8897822510986878</v>
       </c>
       <c r="V5">
-        <v>0.8676110179063155</v>
+        <v>0.8897822510986878</v>
       </c>
       <c r="W5">
-        <v>0.8676110179063155</v>
+        <v>0.8897822510986878</v>
       </c>
       <c r="X5">
-        <v>0.8853396364694306</v>
+        <v>0.8897822510986878</v>
       </c>
       <c r="Y5">
-        <v>0.8853396364694306</v>
+        <v>0.8897822510986878</v>
       </c>
       <c r="Z5">
-        <v>0.889192233418423</v>
+        <v>0.8897822510986878</v>
       </c>
       <c r="AA5">
-        <v>0.9068789447618892</v>
+        <v>0.8992413597046791</v>
       </c>
       <c r="AB5">
-        <v>0.9148800719099905</v>
+        <v>0.8992413597046791</v>
       </c>
       <c r="AC5">
-        <v>0.9148800719099905</v>
+        <v>0.9010376922529989</v>
       </c>
       <c r="AD5">
-        <v>0.9496554635808812</v>
+        <v>0.9438456114492251</v>
       </c>
       <c r="AE5">
-        <v>0.978183830391231</v>
+        <v>0.9832036479175712</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:80">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1751,100 +3371,235 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1053669027930353</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1053669027930353</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2446680120472961</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2446680120472961</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.2446680120472961</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2597455082958083</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2650057864060423</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2650057864060423</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6406603577198036</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6406603577198036</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6406603577198036</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6548521609577843</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6583310664571806</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6583310664571806</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.6583310664571806</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.6583310664571806</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.7832858109031073</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.8157922571047328</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.8157922571047328</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.8157922571047328</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.8528558066759137</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.8528558066759137</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.8528558066759137</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.8771073642135303</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.8934575937727696</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.8934575937727696</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9446954170769764</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.9656024624123036</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0.2661081420317362</v>
+      </c>
+      <c r="AW6">
+        <v>0.2921883310736719</v>
+      </c>
+      <c r="AX6">
+        <v>0.4118364961923145</v>
+      </c>
+      <c r="AY6">
+        <v>0.4298239483502315</v>
+      </c>
+      <c r="AZ6">
+        <v>0.4536735366640845</v>
+      </c>
+      <c r="BA6">
+        <v>0.4536735366640845</v>
+      </c>
+      <c r="BB6">
+        <v>0.4626401022478893</v>
+      </c>
+      <c r="BC6">
+        <v>0.5418565622013315</v>
+      </c>
+      <c r="BD6">
+        <v>0.6797671631338307</v>
+      </c>
+      <c r="BE6">
+        <v>0.6797671631338307</v>
+      </c>
+      <c r="BF6">
+        <v>0.797308140073041</v>
+      </c>
+      <c r="BG6">
+        <v>0.797308140073041</v>
+      </c>
+      <c r="BH6">
+        <v>0.797308140073041</v>
+      </c>
+      <c r="BI6">
+        <v>0.797308140073041</v>
+      </c>
+      <c r="BJ6">
+        <v>0.797308140073041</v>
+      </c>
+      <c r="BK6">
+        <v>0.797308140073041</v>
+      </c>
+      <c r="BL6">
+        <v>0.8283639195821463</v>
+      </c>
+      <c r="BM6">
+        <v>0.8944109518370238</v>
+      </c>
+      <c r="BN6">
+        <v>0.8944109518370238</v>
+      </c>
+      <c r="BO6">
+        <v>0.8944109518370238</v>
+      </c>
+      <c r="BP6">
+        <v>0.8944109518370238</v>
+      </c>
+      <c r="BQ6">
+        <v>0.8944109518370238</v>
+      </c>
+      <c r="BR6">
+        <v>0.8944109518370238</v>
+      </c>
+      <c r="BS6">
+        <v>0.908890845211544</v>
+      </c>
+      <c r="BT6">
+        <v>0.908890845211544</v>
+      </c>
+      <c r="BU6">
+        <v>0.908890845211544</v>
+      </c>
+      <c r="BV6">
+        <v>0.9430725533349511</v>
+      </c>
+      <c r="BW6">
+        <v>0.9803073995922615</v>
+      </c>
+      <c r="BX6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BY6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BZ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CA6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CB6">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1862,48 +3617,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1912,16 +3667,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.5360190785628797</v>
+      </c>
+      <c r="G2">
         <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5768317183446927</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -1930,39 +3685,39 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.6525941587022869</v>
+      </c>
+      <c r="G3">
         <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.516377766947244</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -1971,21 +3726,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -1994,16 +3749,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.5912829550338614</v>
+      </c>
+      <c r="G4">
         <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.6040957348241872</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -2012,21 +3767,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2041,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6956079072953363</v>
+        <v>0.6748488542157469</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -2053,39 +3808,39 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6406603577198036</v>
+        <v>0.5418565622013315</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -2094,16 +3849,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2121,48 +3876,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2171,16 +3926,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7621940992308734</v>
+        <v>0.7271541900759398</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -2189,36 +3944,36 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7410717865071137</v>
+        <v>0.7834391208411323</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -2230,21 +3985,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2253,16 +4008,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7110676745856348</v>
+        <v>0.7274187013431133</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -2271,21 +4026,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2300,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.717285599733085</v>
+        <v>0.7778251969530646</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2312,39 +4067,39 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7832858109031073</v>
+        <v>0.797308140073041</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -2353,16 +4108,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2380,48 +4135,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2430,16 +4185,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8153038523353682</v>
+      </c>
+      <c r="G2">
         <v>19</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8137763435284275</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -2448,39 +4203,39 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8464047576263807</v>
+        <v>0.8180741743041212</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -2489,21 +4244,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2512,16 +4267,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8205593847006143</v>
+      </c>
+      <c r="G4">
         <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8672933372416263</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -2530,21 +4285,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2553,16 +4308,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8136484310529724</v>
+        <v>0.8066308394672296</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -2571,39 +4326,39 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8157922571047328</v>
+        <v>0.8283639195821463</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -2612,16 +4367,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2639,48 +4394,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2689,16 +4444,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9040389160537048</v>
+        <v>0.9594246067928456</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -2707,39 +4462,39 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.928813502375882</v>
+        <v>0.9022579074757947</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -2748,21 +4503,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2771,16 +4526,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9174417553368053</v>
+        <v>0.9076220555716491</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -2789,21 +4544,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2812,16 +4567,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9068789447618892</v>
+        <v>0.9010376922529989</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -2830,39 +4585,39 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9446954170769764</v>
+        <v>0.908890845211544</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -2871,16 +4626,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
